--- a/fermentation_insights/TRY_results/spearman_HP_sugarcane.xlsx
+++ b/fermentation_insights/TRY_results/spearman_HP_sugarcane.xlsx
@@ -625,109 +625,109 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4001807687230749</v>
+        <v>0.4066424585698343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4912814851259405</v>
+        <v>0.4726176664706659</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2214945819783279</v>
+        <v>0.4254899259597039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03940988563954256</v>
+        <v>0.04186519146076585</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003462157848631394</v>
+        <v>0.00813881655526622</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7157841431365726</v>
+        <v>-0.6995584462337849</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01021184884739539</v>
+        <v>0.00782566330265321</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3280668162672651</v>
+        <v>-0.3480479521918088</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1577949671798687</v>
+        <v>0.1597235188940756</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05549148596594387</v>
+        <v>0.06368550274201097</v>
       </c>
       <c r="M2" t="n">
-        <v>8.64003456013824e-05</v>
+        <v>0.003125388501554006</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.06750651002604011</v>
+        <v>-0.06272194688778755</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01044186576746307</v>
+        <v>0.01984193536774147</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0388622994491978</v>
+        <v>-0.04349153396613586</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005530102120408481</v>
+        <v>0.01094471577886312</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07817292069168277</v>
+        <v>0.0557691190764763</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.05749270997083988</v>
+        <v>-0.02832750531002124</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.05262923451693807</v>
+        <v>-0.0426810987243949</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3362973131892528</v>
+        <v>0.3307446509786039</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04522568490273961</v>
+        <v>0.03781819927279709</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01930913323653295</v>
+        <v>0.01323451693806775</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.05612854451417806</v>
+        <v>-0.04178215112860451</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.05497692390769563</v>
+        <v>-0.07302202008808036</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02231519326077304</v>
+        <v>-0.01962679850719403</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001309925239700959</v>
+        <v>-0.001460837843351373</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.02098616394465578</v>
+        <v>-0.01762365449461798</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.09384805539222157</v>
+        <v>0.08152515810063241</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1419791919167677</v>
+        <v>0.08284996339985359</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.114685130740523</v>
+        <v>0.1055654782619131</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1402984171936688</v>
+        <v>-0.1618198792795171</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1306928107712431</v>
+        <v>-0.2028998835995344</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01112337249348997</v>
+        <v>0.004409297637190549</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.03819634478537914</v>
+        <v>-0.0406750747002988</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.2382463609854439</v>
+        <v>0.1824198336793347</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.3860314641258565</v>
+        <v>0.3857082308329233</v>
       </c>
     </row>
     <row r="3">
@@ -737,112 +737,112 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4001807687230749</v>
+        <v>0.4066424585698343</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6464582338329353</v>
+        <v>0.6243228492913971</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.28237917751671</v>
+        <v>-0.0001797127188508754</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1565952503810015</v>
+        <v>-0.1599723518894076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04279658718634875</v>
+        <v>0.03885442741770967</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.642939627758511</v>
+        <v>-0.6454096216384866</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4838036312145249</v>
+        <v>0.4885280021120085</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0107374509498038</v>
+        <v>0.01268501074004296</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.009303589214356858</v>
+        <v>-0.007924639698558795</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008480385921543687</v>
+        <v>0.005885207540830164</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0119123996495986</v>
+        <v>-0.01356370225480902</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04852416209664839</v>
+        <v>0.04701215604862419</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.06559533438133752</v>
+        <v>-0.06548214992859971</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006666554666218665</v>
+        <v>0.008774051096204384</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09561667046668186</v>
+        <v>0.09560083040332161</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02337887751551006</v>
+        <v>0.02854705818823275</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.2822869211476846</v>
+        <v>-0.2854567578270313</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.06759761439045756</v>
+        <v>-0.06924555698222792</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3616125184500738</v>
+        <v>0.3643984495937984</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09197287989151956</v>
+        <v>0.09416533666134665</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.03821938487753951</v>
+        <v>-0.04055411421645687</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.04176467905871623</v>
+        <v>-0.04336586946347785</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.04228010512042048</v>
+        <v>-0.03842098568394273</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05077565910263641</v>
+        <v>0.04997827991311965</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03830040920163681</v>
+        <v>0.03932761331045324</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.001829767319069276</v>
+        <v>-0.004449329797319189</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.06737028548114192</v>
+        <v>0.06820520082080328</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.2002543050172201</v>
+        <v>-0.1848195552782211</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.08052041808167233</v>
+        <v>0.07968051072204289</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06376412705650823</v>
+        <v>0.06290252361009444</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.02599603998415994</v>
+        <v>-0.0192812931251725</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003626606506426026</v>
+        <v>0.006956571826287305</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02461411445645783</v>
+        <v>0.02784673538694155</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.171123180492722</v>
+        <v>-0.1650389641558566</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.2131836367345469</v>
+        <v>-0.2069243156972628</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +852,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4912814851259405</v>
+        <v>0.4726176664706659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6464582338329353</v>
+        <v>0.6243228492913971</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5268819795279182</v>
+        <v>-0.2741950487801951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01678643514574058</v>
+        <v>0.07498301993207973</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.005939351757407029</v>
+        <v>-0.0009156516626066504</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7393358213432853</v>
+        <v>-0.7313987975951903</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01813562454249817</v>
+        <v>0.03004456817827271</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3420249840999364</v>
+        <v>0.3622416089664359</v>
       </c>
       <c r="K4" t="n">
-        <v>0.049625190500762</v>
+        <v>0.05389058356233425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1631275965103861</v>
+        <v>0.1760960963843855</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02301302005208021</v>
+        <v>0.03428384913539654</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.009895431581726327</v>
+        <v>-0.01190116760467042</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1354935019740079</v>
+        <v>0.1618361993447974</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.008414625658502635</v>
+        <v>-0.002796011184044736</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05829076116304465</v>
+        <v>0.04846742586970348</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04350190200760803</v>
+        <v>0.04561467845871384</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03897567590270361</v>
+        <v>-0.0347063468253873</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.05283275533102132</v>
+        <v>-0.06371622286489145</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4132214608858436</v>
+        <v>0.4053824535298141</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1271488605954424</v>
+        <v>0.1600930243720975</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.05089873159492638</v>
+        <v>-0.03935852543410174</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004720530882123528</v>
+        <v>-0.006451993807975231</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1720670562682251</v>
+        <v>0.1722185448741795</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0005794583178332713</v>
+        <v>0.001351685406741627</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07576763107052428</v>
+        <v>0.06239304957219829</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.002079464317857271</v>
+        <v>-0.01084161136644547</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.08263050652202608</v>
+        <v>0.09849005796023184</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01326082104328417</v>
+        <v>0.06462909051636206</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05847412189648758</v>
+        <v>0.06864632258529034</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0856558626234505</v>
+        <v>0.1188465553862215</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.03020546482185929</v>
+        <v>0.03991283165132661</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01787056748226993</v>
+        <v>0.01683472333889336</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.009900231600926403</v>
+        <v>-0.001970119880479522</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.1591343645374582</v>
+        <v>-0.09263317053268214</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05884727538910155</v>
+        <v>0.1078402073608294</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +967,112 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2214945819783279</v>
+        <v>0.4254899259597039</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.28237917751671</v>
+        <v>-0.0001797127188508754</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5268819795279182</v>
+        <v>-0.2741950487801951</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0282122088488354</v>
+        <v>-0.1984500738002952</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03245926583706335</v>
+        <v>0.04821168084672339</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2162970251881008</v>
+        <v>-0.01340510962043848</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2684071856287425</v>
+        <v>0.3413487573950296</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4843218412873652</v>
+        <v>-0.5270351001404006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2166796827187309</v>
+        <v>0.2484217296869188</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.000176064704258817</v>
+        <v>0.02144235776943108</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03673329893319573</v>
+        <v>0.04667116268465074</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002784491137964552</v>
+        <v>-0.0007282589130356521</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03378560714242857</v>
+        <v>0.02779287917151669</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02712625250501002</v>
+        <v>0.03274755499021996</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.04055133020532082</v>
+        <v>-0.007807807231228925</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.01813898455593822</v>
+        <v>-0.04501131604526418</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.204121200484802</v>
+        <v>-0.165999735998944</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.06978613514454057</v>
+        <v>-0.08518286873147493</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.193875943503774</v>
+        <v>-0.09157083028332114</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05649315397261589</v>
+        <v>0.04341492565970264</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05143950175800703</v>
+        <v>0.03924150096600387</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.01785674342697371</v>
+        <v>-0.002119784479137916</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.124752691010764</v>
+        <v>-0.1679263677054708</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003872559490237961</v>
+        <v>0.0084625298501194</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1144279457117828</v>
+        <v>-0.07985071940287761</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.04658466633866536</v>
+        <v>-0.006615386461545846</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.07326115704462818</v>
+        <v>0.06242012168048672</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02748663794655179</v>
+        <v>-0.1731600206400826</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0489248676994708</v>
+        <v>0.05754704618818475</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.01041517766071064</v>
+        <v>-0.02427360109440438</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01306613226452906</v>
+        <v>-0.1095736862947452</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.02932062928251713</v>
+        <v>-0.04311540446161784</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.001217860871443486</v>
+        <v>-0.01645302581210325</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2722380809523238</v>
+        <v>0.1161332965331861</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5464646178584714</v>
+        <v>0.5302922011688047</v>
       </c>
     </row>
     <row r="6">
@@ -1082,112 +1082,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03940988563954256</v>
+        <v>0.04186519146076585</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1565952503810015</v>
+        <v>-0.1599723518894076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01678643514574058</v>
+        <v>0.07498301993207973</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0282122088488354</v>
+        <v>-0.1984500738002952</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01221556886227545</v>
+        <v>-0.03429815319261277</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01817018468073872</v>
+        <v>-0.04278545114180457</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03720782883131533</v>
+        <v>-0.03950454201816807</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.00749628598514394</v>
+        <v>-0.04702406009624038</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004216336865347461</v>
+        <v>-0.009147492589970359</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.007525566102264409</v>
+        <v>0.01889767559070236</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03593975975903903</v>
+        <v>-0.005994455977823911</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05831792927171708</v>
+        <v>0.01343429373717495</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03877829911319645</v>
+        <v>0.02190258361033444</v>
       </c>
       <c r="P6" t="n">
-        <v>0.005054612218448874</v>
+        <v>0.00897872391489566</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.04377415909663639</v>
+        <v>-0.07893794775179101</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06259157836631346</v>
+        <v>0.06548195792783171</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005138612554450217</v>
+        <v>-0.005068436273745095</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.003251053004212017</v>
+        <v>0.00906502826011304</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0525690422761691</v>
+        <v>-0.07445261781047124</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08661999447997792</v>
+        <v>0.035999567998272</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06212703250813003</v>
+        <v>0.0842626090504362</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.0110436921747687</v>
+        <v>0.05975591902367609</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05387445549782199</v>
+        <v>0.007858015432061728</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.008478465913863656</v>
+        <v>-0.00403499213996856</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.08061392245568982</v>
+        <v>-0.05712166848667394</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.03127404509618038</v>
+        <v>-0.09929290917163669</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0106186024744099</v>
+        <v>-0.01299739598958396</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6662276889107557</v>
+        <v>0.9250981963927856</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.009160740642962573</v>
+        <v>0.006769563078252313</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0766631226524906</v>
+        <v>0.014687674750699</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5643338413353653</v>
+        <v>0.114938667754671</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.08100685202740811</v>
+        <v>0.03208851235404941</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.03449034596138385</v>
+        <v>0.06152098208392834</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.01291685166740667</v>
+        <v>0.002734474937899752</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.07509178836715347</v>
+        <v>0.0641497605990424</v>
       </c>
     </row>
     <row r="7">
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003462157848631394</v>
+        <v>0.00813881655526622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04279658718634875</v>
+        <v>0.03885442741770967</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.005939351757407029</v>
+        <v>-0.0009156516626066504</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03245926583706335</v>
+        <v>0.04821168084672339</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01221556886227545</v>
+        <v>-0.03429815319261277</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7157841431365726</v>
+        <v>-0.6995584462337849</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.642939627758511</v>
+        <v>-0.6454096216384866</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7393358213432853</v>
+        <v>-0.7313987975951903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2162970251881008</v>
+        <v>-0.01340510962043848</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01817018468073872</v>
+        <v>-0.04278545114180457</v>
       </c>
       <c r="G8" t="n">
         <v>-0.0228686354745419</v>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01021184884739539</v>
+        <v>0.00782566330265321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4838036312145249</v>
+        <v>0.4885280021120085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01813562454249817</v>
+        <v>0.03004456817827271</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2684071856287425</v>
+        <v>0.3413487573950296</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03720782883131533</v>
+        <v>-0.03950454201816807</v>
       </c>
       <c r="G9" t="n">
         <v>0.08910342841371366</v>
@@ -1542,19 +1542,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3280668162672651</v>
+        <v>-0.3480479521918088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0107374509498038</v>
+        <v>0.01268501074004296</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3420249840999364</v>
+        <v>0.3622416089664359</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4843218412873652</v>
+        <v>-0.5270351001404006</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.00749628598514394</v>
+        <v>-0.04702406009624038</v>
       </c>
       <c r="G10" t="n">
         <v>-0.01306565226260905</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1577949671798687</v>
+        <v>0.1597235188940756</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.009303589214356858</v>
+        <v>-0.007924639698558795</v>
       </c>
       <c r="D11" t="n">
-        <v>0.049625190500762</v>
+        <v>0.05389058356233425</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2166796827187309</v>
+        <v>0.2484217296869188</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004216336865347461</v>
+        <v>-0.009147492589970359</v>
       </c>
       <c r="G11" t="n">
         <v>-0.1083313453253813</v>
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05549148596594387</v>
+        <v>0.06368550274201097</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008480385921543687</v>
+        <v>0.005885207540830164</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1631275965103861</v>
+        <v>0.1760960963843855</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.000176064704258817</v>
+        <v>0.02144235776943108</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.007525566102264409</v>
+        <v>0.01889767559070236</v>
       </c>
       <c r="G12" t="n">
         <v>0.04719705278821115</v>
@@ -1887,19 +1887,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.64003456013824e-05</v>
+        <v>0.003125388501554006</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0119123996495986</v>
+        <v>-0.01356370225480902</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02301302005208021</v>
+        <v>0.03428384913539654</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03673329893319573</v>
+        <v>0.04667116268465074</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03593975975903903</v>
+        <v>-0.005994455977823911</v>
       </c>
       <c r="G13" t="n">
         <v>0.01714826059304237</v>
@@ -2002,19 +2002,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.06750651002604011</v>
+        <v>-0.06272194688778755</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04852416209664839</v>
+        <v>0.04701215604862419</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.009895431581726327</v>
+        <v>-0.01190116760467042</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002784491137964552</v>
+        <v>-0.0007282589130356521</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05831792927171708</v>
+        <v>0.01343429373717495</v>
       </c>
       <c r="G14" t="n">
         <v>-0.009399205596822387</v>
@@ -2117,19 +2117,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01044186576746307</v>
+        <v>0.01984193536774147</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06559533438133752</v>
+        <v>-0.06548214992859971</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1354935019740079</v>
+        <v>0.1618361993447974</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03378560714242857</v>
+        <v>0.02779287917151669</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03877829911319645</v>
+        <v>0.02190258361033444</v>
       </c>
       <c r="G15" t="n">
         <v>0.009240900963603855</v>
@@ -2232,19 +2232,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0388622994491978</v>
+        <v>-0.04349153396613586</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006666554666218665</v>
+        <v>0.008774051096204384</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.008414625658502635</v>
+        <v>-0.002796011184044736</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02712625250501002</v>
+        <v>0.03274755499021996</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005054612218448874</v>
+        <v>0.00897872391489566</v>
       </c>
       <c r="G16" t="n">
         <v>-0.06015153660614642</v>
@@ -2347,19 +2347,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005530102120408481</v>
+        <v>0.01094471577886312</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09561667046668186</v>
+        <v>0.09560083040332161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05829076116304465</v>
+        <v>0.04846742586970348</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.04055133020532082</v>
+        <v>-0.007807807231228925</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04377415909663639</v>
+        <v>-0.07893794775179101</v>
       </c>
       <c r="G17" t="n">
         <v>0.02646932187728751</v>
@@ -2462,19 +2462,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07817292069168277</v>
+        <v>0.0557691190764763</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02337887751551006</v>
+        <v>0.02854705818823275</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04350190200760803</v>
+        <v>0.04561467845871384</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01813898455593822</v>
+        <v>-0.04501131604526418</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06259157836631346</v>
+        <v>0.06548195792783171</v>
       </c>
       <c r="G18" t="n">
         <v>-0.0740436561746247</v>
@@ -2577,19 +2577,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05749270997083988</v>
+        <v>-0.02832750531002124</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2822869211476846</v>
+        <v>-0.2854567578270313</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03897567590270361</v>
+        <v>-0.0347063468253873</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.204121200484802</v>
+        <v>-0.165999735998944</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005138612554450217</v>
+        <v>-0.005068436273745095</v>
       </c>
       <c r="G19" t="n">
         <v>0.01246353785415142</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05262923451693807</v>
+        <v>-0.0426810987243949</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06759761439045756</v>
+        <v>-0.06924555698222792</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05283275533102132</v>
+        <v>-0.06371622286489145</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06978613514454057</v>
+        <v>-0.08518286873147493</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.003251053004212017</v>
+        <v>0.00906502826011304</v>
       </c>
       <c r="G20" t="n">
         <v>-0.0212874131496526</v>
@@ -2807,19 +2807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3362973131892528</v>
+        <v>0.3307446509786039</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3616125184500738</v>
+        <v>0.3643984495937984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4132214608858436</v>
+        <v>0.4053824535298141</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.193875943503774</v>
+        <v>-0.09157083028332114</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0525690422761691</v>
+        <v>-0.07445261781047124</v>
       </c>
       <c r="G21" t="n">
         <v>-0.03526689306757227</v>
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04522568490273961</v>
+        <v>0.03781819927279709</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09197287989151956</v>
+        <v>0.09416533666134665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1271488605954424</v>
+        <v>0.1600930243720975</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05649315397261589</v>
+        <v>0.04341492565970264</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08661999447997792</v>
+        <v>0.035999567998272</v>
       </c>
       <c r="G22" t="n">
         <v>0.02758964635858543</v>
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01930913323653295</v>
+        <v>0.01323451693806775</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03821938487753951</v>
+        <v>-0.04055411421645687</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.05089873159492638</v>
+        <v>-0.03935852543410174</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05143950175800703</v>
+        <v>0.03924150096600387</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06212703250813003</v>
+        <v>0.0842626090504362</v>
       </c>
       <c r="G23" t="n">
         <v>0.06868702674810699</v>
@@ -3152,19 +3152,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.05612854451417806</v>
+        <v>-0.04178215112860451</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04176467905871623</v>
+        <v>-0.04336586946347785</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004720530882123528</v>
+        <v>-0.006451993807975231</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.01785674342697371</v>
+        <v>-0.002119784479137916</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0110436921747687</v>
+        <v>0.05975591902367609</v>
       </c>
       <c r="G24" t="n">
         <v>0.02887518750075</v>
@@ -3267,19 +3267,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05497692390769563</v>
+        <v>-0.07302202008808036</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.04228010512042048</v>
+        <v>-0.03842098568394273</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1720670562682251</v>
+        <v>0.1722185448741795</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.124752691010764</v>
+        <v>-0.1679263677054708</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05387445549782199</v>
+        <v>0.007858015432061728</v>
       </c>
       <c r="G25" t="n">
         <v>0.01226644906579626</v>
@@ -3382,19 +3382,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02231519326077304</v>
+        <v>-0.01962679850719403</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05077565910263641</v>
+        <v>0.04997827991311965</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0005794583178332713</v>
+        <v>0.001351685406741627</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003872559490237961</v>
+        <v>0.0084625298501194</v>
       </c>
       <c r="F26" t="n">
-        <v>0.008478465913863656</v>
+        <v>-0.00403499213996856</v>
       </c>
       <c r="G26" t="n">
         <v>0.01696845187380749</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001309925239700959</v>
+        <v>-0.001460837843351373</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03830040920163681</v>
+        <v>0.03932761331045324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07576763107052428</v>
+        <v>0.06239304957219829</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1144279457117828</v>
+        <v>-0.07985071940287761</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.08061392245568982</v>
+        <v>-0.05712166848667394</v>
       </c>
       <c r="G27" t="n">
         <v>-0.004993555974223897</v>
@@ -3612,19 +3612,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.02098616394465578</v>
+        <v>-0.01762365449461798</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.001829767319069276</v>
+        <v>-0.004449329797319189</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002079464317857271</v>
+        <v>-0.01084161136644547</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.04658466633866536</v>
+        <v>-0.006615386461545846</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.03127404509618038</v>
+        <v>-0.09929290917163669</v>
       </c>
       <c r="G28" t="n">
         <v>0.03612811251245005</v>
@@ -3727,19 +3727,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09384805539222157</v>
+        <v>0.08152515810063241</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06737028548114192</v>
+        <v>0.06820520082080328</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08263050652202608</v>
+        <v>0.09849005796023184</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07326115704462818</v>
+        <v>0.06242012168048672</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0106186024744099</v>
+        <v>-0.01299739598958396</v>
       </c>
       <c r="G29" t="n">
         <v>0.05674179496717987</v>
@@ -3842,19 +3842,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1419791919167677</v>
+        <v>0.08284996339985359</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2002543050172201</v>
+        <v>-0.1848195552782211</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01326082104328417</v>
+        <v>0.06462909051636206</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02748663794655179</v>
+        <v>-0.1731600206400826</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6662276889107557</v>
+        <v>0.9250981963927856</v>
       </c>
       <c r="G30" t="n">
         <v>-0.03504887619550478</v>
@@ -3957,19 +3957,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.114685130740523</v>
+        <v>0.1055654782619131</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08052041808167233</v>
+        <v>0.07968051072204289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05847412189648758</v>
+        <v>0.06864632258529034</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0489248676994708</v>
+        <v>0.05754704618818475</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.009160740642962573</v>
+        <v>0.006769563078252313</v>
       </c>
       <c r="G31" t="n">
         <v>0.04266468265873063</v>
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1402984171936688</v>
+        <v>-0.1618198792795171</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06376412705650823</v>
+        <v>0.06290252361009444</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0856558626234505</v>
+        <v>0.1188465553862215</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.01041517766071064</v>
+        <v>-0.02427360109440438</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0766631226524906</v>
+        <v>0.014687674750699</v>
       </c>
       <c r="G32" t="n">
         <v>0.02212693650774603</v>
@@ -4187,19 +4187,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1306928107712431</v>
+        <v>-0.2028998835995344</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02599603998415994</v>
+        <v>-0.0192812931251725</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03020546482185929</v>
+        <v>0.03991283165132661</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01306613226452906</v>
+        <v>-0.1095736862947452</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5643338413353653</v>
+        <v>0.114938667754671</v>
       </c>
       <c r="G33" t="n">
         <v>-0.001653510614042456</v>
@@ -4302,19 +4302,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01112337249348997</v>
+        <v>0.004409297637190549</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003626606506426026</v>
+        <v>0.006956571826287305</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01787056748226993</v>
+        <v>0.01683472333889336</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.02932062928251713</v>
+        <v>-0.04311540446161784</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08100685202740811</v>
+        <v>0.03208851235404941</v>
       </c>
       <c r="G34" t="n">
         <v>0.004860499441997768</v>
@@ -4417,19 +4417,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.03819634478537914</v>
+        <v>-0.0406750747002988</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02461411445645783</v>
+        <v>0.02784673538694155</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.009900231600926403</v>
+        <v>-0.001970119880479522</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.001217860871443486</v>
+        <v>-0.01645302581210325</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03449034596138385</v>
+        <v>0.06152098208392834</v>
       </c>
       <c r="G35" t="n">
         <v>0.01461692246768987</v>
@@ -4532,19 +4532,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2382463609854439</v>
+        <v>0.1824198336793347</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.171123180492722</v>
+        <v>-0.1650389641558566</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1591343645374582</v>
+        <v>-0.09263317053268214</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2722380809523238</v>
+        <v>0.1161332965331861</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01291685166740667</v>
+        <v>0.002734474937899752</v>
       </c>
       <c r="G36" t="n">
         <v>0.04644709778839115</v>
@@ -4647,19 +4647,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3860314641258565</v>
+        <v>0.3857082308329233</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2131836367345469</v>
+        <v>-0.2069243156972628</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05884727538910155</v>
+        <v>0.1078402073608294</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5464646178584714</v>
+        <v>0.5302922011688047</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07509178836715347</v>
+        <v>0.0641497605990424</v>
       </c>
       <c r="G37" t="n">
         <v>0.02651617006468026</v>
